--- a/test_data/REPORT_test_data/report_MOCK_DATA.xlsx_some_data.xlsx
+++ b/test_data/REPORT_test_data/report_MOCK_DATA.xlsx_some_data.xlsx
@@ -29,7 +29,7 @@
       <b val="1"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill/>
     </fill>
@@ -40,6 +40,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="0000FF00"/>
         <bgColor rgb="0000FF00"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FF0000"/>
+        <bgColor rgb="00FF0000"/>
       </patternFill>
     </fill>
   </fills>
@@ -61,13 +67,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -478,17 +485,17 @@
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
         <is>
-          <t>('1979-02-24 00:00:00', 'Fivespan', 'BRL', 'Allfunds Bank, S.A.')</t>
+          <t>('2002-11-28 00:00:00', 'Voolith', 'SEK', 'BEAR STATE BANK')</t>
         </is>
       </c>
       <c r="B2" s="2" t="inlineStr">
         <is>
-          <t>[3.58842]</t>
+          <t>[9.1101]</t>
         </is>
       </c>
       <c r="C2" s="2" t="inlineStr">
         <is>
-          <t>[3.58842]</t>
+          <t>[9.1101]</t>
         </is>
       </c>
       <c r="D2" s="3" t="inlineStr">
@@ -505,17 +512,17 @@
     <row r="3">
       <c r="A3" s="2" t="inlineStr">
         <is>
-          <t>('1984-04-13 00:00:00', 'Oyoloo', 'BAM', 'BANK OF COMMERCE')</t>
+          <t>('2014-10-02 00:00:00', 'Twinder', 'IDR', 'Rathkeale and District Credit Union Limited')</t>
         </is>
       </c>
       <c r="B3" s="2" t="inlineStr">
         <is>
-          <t>[22.1151]</t>
+          <t>[20.75567]</t>
         </is>
       </c>
       <c r="C3" s="2" t="inlineStr">
         <is>
-          <t>[22.1151]</t>
+          <t>[20.75567]</t>
         </is>
       </c>
       <c r="D3" s="3" t="inlineStr">
@@ -532,17 +539,17 @@
     <row r="4">
       <c r="A4" s="2" t="inlineStr">
         <is>
-          <t>('2006-11-18 00:00:00', 'Eidel', 'AFN', 'Sparkasse Bochum')</t>
+          <t>('1998-10-16 00:00:00', 'Photospace', 'PHP', 'BUSEY BANK')</t>
         </is>
       </c>
       <c r="B4" s="2" t="inlineStr">
         <is>
-          <t>[19.50036]</t>
+          <t>[18.71105]</t>
         </is>
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>[19.50036]</t>
+          <t>[18.71105]</t>
         </is>
       </c>
       <c r="D4" s="3" t="inlineStr">
@@ -559,17 +566,17 @@
     <row r="5">
       <c r="A5" s="2" t="inlineStr">
         <is>
-          <t>('2002-11-28 00:00:00', 'Voolith', 'SEK', 'BEAR STATE BANK')</t>
+          <t>('1994-12-21 00:00:00', 'Izio', 'RUB', 'HORIZON CREDIT UNION')</t>
         </is>
       </c>
       <c r="B5" s="2" t="inlineStr">
         <is>
-          <t>[9.1101]</t>
+          <t>[12.92437]</t>
         </is>
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>[9.1101]</t>
+          <t>[12.92437]</t>
         </is>
       </c>
       <c r="D5" s="3" t="inlineStr">
@@ -586,17 +593,17 @@
     <row r="6">
       <c r="A6" s="2" t="inlineStr">
         <is>
-          <t>('1980-11-25 00:00:00', 'Dynabox', 'PEN', "BANCO BPM SOCIETA' PER AZIONI")</t>
+          <t>('1985-08-28 00:00:00', 'Photolist', 'BGN', "BANCO BPM SOCIETA' PER AZIONI")</t>
         </is>
       </c>
       <c r="B6" s="2" t="inlineStr">
         <is>
-          <t>[22.08837]</t>
+          <t>[8.56818]</t>
         </is>
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>[22.08837]</t>
+          <t>[8.56818]</t>
         </is>
       </c>
       <c r="D6" s="3" t="inlineStr">
@@ -613,17 +620,17 @@
     <row r="7">
       <c r="A7" s="2" t="inlineStr">
         <is>
-          <t>('2009-06-10 00:00:00', 'Ntags', 'CNY', 'BANCO POPULAR')</t>
+          <t>('', 'Agivu', 'SEK', 'Bank of Montreal Europe PLC')</t>
         </is>
       </c>
       <c r="B7" s="2" t="inlineStr">
         <is>
-          <t>[16.0947]</t>
+          <t>[24.98768]</t>
         </is>
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>[16.0947]</t>
+          <t>[24.98768]</t>
         </is>
       </c>
       <c r="D7" s="3" t="inlineStr">
@@ -640,44 +647,44 @@
     <row r="8">
       <c r="A8" s="2" t="inlineStr">
         <is>
-          <t>('', 'Agivu', 'SEK', 'Bank of Montreal Europe PLC')</t>
+          <t>('2010-08-03 00:00:00', 'Oyoloo', 'IDR', 'REGIONS BANK')</t>
         </is>
       </c>
       <c r="B8" s="2" t="inlineStr">
         <is>
-          <t>[24.98768]</t>
+          <t>[7.6021]</t>
         </is>
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>[24.98768]</t>
-        </is>
-      </c>
-      <c r="D8" s="3" t="inlineStr">
-        <is>
-          <t>PASS</t>
+          <t>[7.56021]</t>
+        </is>
+      </c>
+      <c r="D8" s="4" t="inlineStr">
+        <is>
+          <t>FAIL</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[-0.04189]</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="inlineStr">
         <is>
-          <t>('2018-09-08 00:00:00', 'Photolist', 'CNY', 'Aedificium Banca pentru Locuinte S.A')</t>
+          <t>('2016-05-20 00:00:00', 'Devpoint', 'RSD', 'BMO HARRIS BANK')</t>
         </is>
       </c>
       <c r="B9" s="2" t="inlineStr">
         <is>
-          <t>[14.50801]</t>
+          <t>[15.45588]</t>
         </is>
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>[14.50801]</t>
+          <t>[15.45588]</t>
         </is>
       </c>
       <c r="D9" s="3" t="inlineStr">
@@ -694,17 +701,17 @@
     <row r="10">
       <c r="A10" s="2" t="inlineStr">
         <is>
-          <t>('2017-03-07 00:00:00', 'Abatz', 'IDR', 'Raiffeisen Regionalbank Schwaz-Wattens eGen')</t>
+          <t>('1986-02-19 00:00:00', 'Tanoodle', 'EUR', 'BfW - Bank für Wohnungswirtschaft AG')</t>
         </is>
       </c>
       <c r="B10" s="2" t="inlineStr">
         <is>
-          <t>[8.62391]</t>
+          <t>[16.49538]</t>
         </is>
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>[8.62391]</t>
+          <t>[16.49538]</t>
         </is>
       </c>
       <c r="D10" s="3" t="inlineStr">
@@ -721,17 +728,17 @@
     <row r="11">
       <c r="A11" s="2" t="inlineStr">
         <is>
-          <t>('2004-06-14 00:00:00', 'Dazzlesphere', 'VUV', 'FIRST STATE BANK')</t>
+          <t>('2010-10-16 00:00:00', 'Talane', 'JPY', 'HSBC BANK')</t>
         </is>
       </c>
       <c r="B11" s="2" t="inlineStr">
         <is>
-          <t>[11.04391]</t>
+          <t>[2.65188]</t>
         </is>
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>[11.04391]</t>
+          <t>[2.65188]</t>
         </is>
       </c>
       <c r="D11" s="3" t="inlineStr">
@@ -748,17 +755,17 @@
     <row r="12">
       <c r="A12" s="2" t="inlineStr">
         <is>
-          <t>('1979-01-10 00:00:00', 'Jazzy', 'RUB', 'CITIZENS BANK')</t>
+          <t>('2006-11-18 00:00:00', 'Eidel', 'AFN', 'Sparkasse Bochum')</t>
         </is>
       </c>
       <c r="B12" s="2" t="inlineStr">
         <is>
-          <t>[7.4153]</t>
+          <t>[19.50036]</t>
         </is>
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>[7.4153]</t>
+          <t>[19.50036]</t>
         </is>
       </c>
       <c r="D12" s="3" t="inlineStr">
@@ -775,17 +782,17 @@
     <row r="13">
       <c r="A13" s="2" t="inlineStr">
         <is>
-          <t>('', 'Feedfish', 'BYR', 'BANK OF NEW YORK MELLON')</t>
+          <t>('1991-07-12 00:00:00', 'Skajo', 'JPY', 'Avanza Bank AB')</t>
         </is>
       </c>
       <c r="B13" s="2" t="inlineStr">
         <is>
-          <t>[11.81633]</t>
+          <t>[18.40377]</t>
         </is>
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>[11.81633]</t>
+          <t>[18.40377]</t>
         </is>
       </c>
       <c r="D13" s="3" t="inlineStr">
@@ -802,17 +809,17 @@
     <row r="14">
       <c r="A14" s="2" t="inlineStr">
         <is>
-          <t>('2022-11-19 00:00:00', 'Trilith', 'USD', 'PSD Bank Karlsruhe-Neustadt eG')</t>
+          <t>('2018-06-04 00:00:00', 'Oodoo', 'CNY', 'UNITED BANK')</t>
         </is>
       </c>
       <c r="B14" s="2" t="inlineStr">
         <is>
-          <t>[18.37585]</t>
+          <t>[9.53649]</t>
         </is>
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>[18.37585]</t>
+          <t>[9.53649]</t>
         </is>
       </c>
       <c r="D14" s="3" t="inlineStr">
@@ -829,17 +836,17 @@
     <row r="15">
       <c r="A15" s="2" t="inlineStr">
         <is>
-          <t>('', 'Jabbercube', 'EUR', 'STERLING NATIONAL BANK')</t>
+          <t>('', 'Lazzy', 'BGN', 'PSD Bank Nürnberg eG')</t>
         </is>
       </c>
       <c r="B15" s="2" t="inlineStr">
         <is>
-          <t>[13.88152]</t>
+          <t>[21.98802]</t>
         </is>
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>[13.88152]</t>
+          <t>[21.98802]</t>
         </is>
       </c>
       <c r="D15" s="3" t="inlineStr">
@@ -856,17 +863,17 @@
     <row r="16">
       <c r="A16" s="2" t="inlineStr">
         <is>
-          <t>('1998-12-05 00:00:00', 'Quire', 'PKR', "Société de banque et d'expansion - S.B.E. (2ème du nom)")</t>
+          <t>('', 'Livefish', 'CNY', 'FIRST NATIONAL BANK')</t>
         </is>
       </c>
       <c r="B16" s="2" t="inlineStr">
         <is>
-          <t>[10.58382]</t>
+          <t>[6.52895]</t>
         </is>
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>[10.58382]</t>
+          <t>[6.52895]</t>
         </is>
       </c>
       <c r="D16" s="3" t="inlineStr">
@@ -883,17 +890,17 @@
     <row r="17">
       <c r="A17" s="2" t="inlineStr">
         <is>
-          <t>('1986-02-19 00:00:00', 'Tanoodle', 'EUR', 'BfW - Bank für Wohnungswirtschaft AG')</t>
+          <t>('', 'Jabbercube', 'EUR', 'STERLING NATIONAL BANK')</t>
         </is>
       </c>
       <c r="B17" s="2" t="inlineStr">
         <is>
-          <t>[16.49538]</t>
+          <t>[13.88152]</t>
         </is>
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>[16.49538]</t>
+          <t>[13.88152]</t>
         </is>
       </c>
       <c r="D17" s="3" t="inlineStr">
@@ -910,17 +917,17 @@
     <row r="18">
       <c r="A18" s="2" t="inlineStr">
         <is>
-          <t>('1975-05-15 00:00:00', 'Thoughtbridge', 'CZK', 'State Bank of India')</t>
+          <t>('2009-06-10 00:00:00', 'Ntags', 'CNY', 'BANCO POPULAR')</t>
         </is>
       </c>
       <c r="B18" s="2" t="inlineStr">
         <is>
-          <t>[20.40504]</t>
+          <t>[16.0947]</t>
         </is>
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>[20.40504]</t>
+          <t>[16.0947]</t>
         </is>
       </c>
       <c r="D18" s="3" t="inlineStr">
@@ -937,17 +944,17 @@
     <row r="19">
       <c r="A19" s="2" t="inlineStr">
         <is>
-          <t>('1983-02-20 00:00:00', 'Eazzy', 'HNL', 'UNION STATE BANK')</t>
+          <t>('2022-06-27 00:00:00', 'Zoonoodle', 'CNY', 'USALLIANCE FEDERAL CREDIT UNION')</t>
         </is>
       </c>
       <c r="B19" s="2" t="inlineStr">
         <is>
-          <t>[23.6349]</t>
+          <t>[22.13272]</t>
         </is>
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>[23.6349]</t>
+          <t>[22.13272]</t>
         </is>
       </c>
       <c r="D19" s="3" t="inlineStr">
@@ -964,17 +971,17 @@
     <row r="20">
       <c r="A20" s="2" t="inlineStr">
         <is>
-          <t>('2010-08-03 00:00:00', 'Oyoloo', 'IDR', 'REGIONS BANK')</t>
+          <t>('1993-04-05 00:00:00', 'Meemm', 'BRL', 'LGT Bank AG, Zweigniederlassung Österreich')</t>
         </is>
       </c>
       <c r="B20" s="2" t="inlineStr">
         <is>
-          <t>[7.6021]</t>
+          <t>[22.99976]</t>
         </is>
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>[7.6021]</t>
+          <t>[22.99976]</t>
         </is>
       </c>
       <c r="D20" s="3" t="inlineStr">
@@ -991,17 +998,17 @@
     <row r="21">
       <c r="A21" s="2" t="inlineStr">
         <is>
-          <t>('2016-05-20 00:00:00', 'Devpoint', 'RSD', 'BMO HARRIS BANK')</t>
+          <t>('1984-04-13 00:00:00', 'Oyoloo', 'BAM', 'BANK OF COMMERCE')</t>
         </is>
       </c>
       <c r="B21" s="2" t="inlineStr">
         <is>
-          <t>[15.45588]</t>
+          <t>[22.1151]</t>
         </is>
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>[15.45588]</t>
+          <t>[22.1151]</t>
         </is>
       </c>
       <c r="D21" s="3" t="inlineStr">
@@ -1018,17 +1025,17 @@
     <row r="22">
       <c r="A22" s="2" t="inlineStr">
         <is>
-          <t>('2018-06-04 00:00:00', 'Oodoo', 'CNY', 'UNITED BANK')</t>
+          <t>('', 'Feedfish', 'BYR', 'BANK OF NEW YORK MELLON')</t>
         </is>
       </c>
       <c r="B22" s="2" t="inlineStr">
         <is>
-          <t>[9.53649]</t>
+          <t>[11.81633]</t>
         </is>
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>[9.53649]</t>
+          <t>[11.81633]</t>
         </is>
       </c>
       <c r="D22" s="3" t="inlineStr">
@@ -1045,17 +1052,17 @@
     <row r="23">
       <c r="A23" s="2" t="inlineStr">
         <is>
-          <t>('1994-12-21 00:00:00', 'Izio', 'RUB', 'HORIZON CREDIT UNION')</t>
+          <t>('2009-02-23 00:00:00', 'Kazu', 'CNY', 'Podravska banka d.d.')</t>
         </is>
       </c>
       <c r="B23" s="2" t="inlineStr">
         <is>
-          <t>[12.92437]</t>
+          <t>[24.7187]</t>
         </is>
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>[12.92437]</t>
+          <t>[24.7187]</t>
         </is>
       </c>
       <c r="D23" s="3" t="inlineStr">
@@ -1072,17 +1079,17 @@
     <row r="24">
       <c r="A24" s="2" t="inlineStr">
         <is>
-          <t>('', 'Photospace', 'RUB', 'BANQUE FIDUCIAL')</t>
+          <t>('1979-02-24 00:00:00', 'Fivespan', 'BRL', 'Allfunds Bank, S.A.')</t>
         </is>
       </c>
       <c r="B24" s="2" t="inlineStr">
         <is>
-          <t>[14.19786]</t>
+          <t>[3.58842]</t>
         </is>
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>[14.19786]</t>
+          <t>[3.58842]</t>
         </is>
       </c>
       <c r="D24" s="3" t="inlineStr">
@@ -1099,17 +1106,17 @@
     <row r="25">
       <c r="A25" s="2" t="inlineStr">
         <is>
-          <t>('1999-06-10 00:00:00', 'Jayo', 'EUR', 'CAPITAL ONE')</t>
+          <t>('', 'Izio', 'KES', 'VR Bank HessenLand eG')</t>
         </is>
       </c>
       <c r="B25" s="2" t="inlineStr">
         <is>
-          <t>[14.47416]</t>
+          <t>[23.8583]</t>
         </is>
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>[14.47416]</t>
+          <t>[23.8583]</t>
         </is>
       </c>
       <c r="D25" s="3" t="inlineStr">
@@ -1126,17 +1133,17 @@
     <row r="26">
       <c r="A26" s="2" t="inlineStr">
         <is>
-          <t>('1985-08-28 00:00:00', 'Photolist', 'BGN', "BANCO BPM SOCIETA' PER AZIONI")</t>
+          <t>('1982-10-27 00:00:00', 'Dablist', 'RUB', 'FIRST BANK &amp; TRUST')</t>
         </is>
       </c>
       <c r="B26" s="2" t="inlineStr">
         <is>
-          <t>[8.56818]</t>
+          <t>[14.69631]</t>
         </is>
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>[8.56818]</t>
+          <t>[14.69631]</t>
         </is>
       </c>
       <c r="D26" s="3" t="inlineStr">
@@ -1153,17 +1160,17 @@
     <row r="27">
       <c r="A27" s="2" t="inlineStr">
         <is>
-          <t>('1991-07-12 00:00:00', 'Skajo', 'JPY', 'Avanza Bank AB')</t>
+          <t>('1980-11-25 00:00:00', 'Dynabox', 'PEN', "BANCO BPM SOCIETA' PER AZIONI")</t>
         </is>
       </c>
       <c r="B27" s="2" t="inlineStr">
         <is>
-          <t>[18.40377]</t>
+          <t>[22.08837]</t>
         </is>
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>[18.40377]</t>
+          <t>[22.08837]</t>
         </is>
       </c>
       <c r="D27" s="3" t="inlineStr">
@@ -1180,17 +1187,17 @@
     <row r="28">
       <c r="A28" s="2" t="inlineStr">
         <is>
-          <t>('1976-02-28 00:00:00', 'Jabberbean', 'CNY', 'FIRST BANK S.A.')</t>
+          <t>('2017-06-04 00:00:00', 'Aimbo', 'CNY', 'Raiffeisenbank Ybbstal eGen')</t>
         </is>
       </c>
       <c r="B28" s="2" t="inlineStr">
         <is>
-          <t>[5.13802]</t>
+          <t>[4.31818]</t>
         </is>
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>[5.13802]</t>
+          <t>[4.31818]</t>
         </is>
       </c>
       <c r="D28" s="3" t="inlineStr">
@@ -1207,17 +1214,17 @@
     <row r="29">
       <c r="A29" s="2" t="inlineStr">
         <is>
-          <t>('1976-07-16 00:00:00', 'Latz', 'PLN', 'UNION STATE BANK')</t>
+          <t>('1998-12-05 00:00:00', 'Quire', 'PKR', "Société de banque et d'expansion - S.B.E. (2ème du nom)")</t>
         </is>
       </c>
       <c r="B29" s="2" t="inlineStr">
         <is>
-          <t>[15.10086]</t>
+          <t>[10.58382]</t>
         </is>
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>[15.10086]</t>
+          <t>[10.58382]</t>
         </is>
       </c>
       <c r="D29" s="3" t="inlineStr">
@@ -1234,17 +1241,17 @@
     <row r="30">
       <c r="A30" s="2" t="inlineStr">
         <is>
-          <t>('2024-10-17 00:00:00', 'Katz', 'PLN', 'Caja Rural San José de Almassora, S. Coop. de Crédito V.')</t>
+          <t>('2015-10-24 00:00:00', 'Fivechat', 'CNY', "Caisse d'épargne et de prévoyance Normandie")</t>
         </is>
       </c>
       <c r="B30" s="2" t="inlineStr">
         <is>
-          <t>[13.76327]</t>
+          <t>[3.73988]</t>
         </is>
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>[13.76327]</t>
+          <t>[3.73988]</t>
         </is>
       </c>
       <c r="D30" s="3" t="inlineStr">
@@ -1261,17 +1268,17 @@
     <row r="31">
       <c r="A31" s="2" t="inlineStr">
         <is>
-          <t>('2014-10-02 00:00:00', 'Twinder', 'IDR', 'Rathkeale and District Credit Union Limited')</t>
+          <t>('1976-07-16 00:00:00', 'Latz', 'PLN', 'UNION STATE BANK')</t>
         </is>
       </c>
       <c r="B31" s="2" t="inlineStr">
         <is>
-          <t>[20.75567]</t>
+          <t>[15.10086]</t>
         </is>
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>[20.75567]</t>
+          <t>[15.10086]</t>
         </is>
       </c>
       <c r="D31" s="3" t="inlineStr">
@@ -1288,17 +1295,17 @@
     <row r="32">
       <c r="A32" s="2" t="inlineStr">
         <is>
-          <t>('2017-06-04 00:00:00', 'Aimbo', 'CNY', 'Raiffeisenbank Ybbstal eGen')</t>
+          <t>('2016-10-12 00:00:00', 'Edgeblab', 'CNY', 'BANCA PROFILO S.P.A. (OVVERO PROFILOBANK S.P.A.)')</t>
         </is>
       </c>
       <c r="B32" s="2" t="inlineStr">
         <is>
-          <t>[4.31818]</t>
+          <t>[4.06219]</t>
         </is>
       </c>
       <c r="C32" s="2" t="inlineStr">
         <is>
-          <t>[4.31818]</t>
+          <t>[4.06219]</t>
         </is>
       </c>
       <c r="D32" s="3" t="inlineStr">
@@ -1315,17 +1322,17 @@
     <row r="33">
       <c r="A33" s="2" t="inlineStr">
         <is>
-          <t>('', 'Topicshots', 'UAH', "BANCA DI CREDITO COOPERATIVO LA RISCOSSA DI REGALBUTO - SOCIETA' COOPERATIVA")</t>
+          <t>('', 'Photospace', 'RUB', 'BANQUE FIDUCIAL')</t>
         </is>
       </c>
       <c r="B33" s="2" t="inlineStr">
         <is>
-          <t>[3.22903]</t>
+          <t>[14.19786]</t>
         </is>
       </c>
       <c r="C33" s="2" t="inlineStr">
         <is>
-          <t>[3.22903]</t>
+          <t>[14.19786]</t>
         </is>
       </c>
       <c r="D33" s="3" t="inlineStr">
@@ -1342,17 +1349,17 @@
     <row r="34">
       <c r="A34" s="2" t="inlineStr">
         <is>
-          <t>('', 'Livefish', 'CNY', 'FIRST NATIONAL BANK')</t>
+          <t>('1991-08-11 00:00:00', 'Eare', 'IDR', 'BANKPLUS')</t>
         </is>
       </c>
       <c r="B34" s="2" t="inlineStr">
         <is>
-          <t>[6.52895]</t>
+          <t>[2.05798]</t>
         </is>
       </c>
       <c r="C34" s="2" t="inlineStr">
         <is>
-          <t>[6.52895]</t>
+          <t>[2.05798]</t>
         </is>
       </c>
       <c r="D34" s="3" t="inlineStr">
@@ -1369,17 +1376,17 @@
     <row r="35">
       <c r="A35" s="2" t="inlineStr">
         <is>
-          <t>('', 'Lazzy', 'BGN', 'PSD Bank Nürnberg eG')</t>
+          <t>('1983-02-20 00:00:00', 'Eazzy', 'HNL', 'UNION STATE BANK')</t>
         </is>
       </c>
       <c r="B35" s="2" t="inlineStr">
         <is>
-          <t>[21.98802]</t>
+          <t>[23.6349]</t>
         </is>
       </c>
       <c r="C35" s="2" t="inlineStr">
         <is>
-          <t>[21.98802]</t>
+          <t>[23.6349]</t>
         </is>
       </c>
       <c r="D35" s="3" t="inlineStr">
@@ -1396,17 +1403,17 @@
     <row r="36">
       <c r="A36" s="2" t="inlineStr">
         <is>
-          <t>('1995-01-11 00:00:00', 'Kaymbo', 'RUB', 'OYAK ANKER Bank GmbH')</t>
+          <t>('2017-03-07 00:00:00', 'Abatz', 'IDR', 'Raiffeisen Regionalbank Schwaz-Wattens eGen')</t>
         </is>
       </c>
       <c r="B36" s="2" t="inlineStr">
         <is>
-          <t>[1.14404]</t>
+          <t>[8.62391]</t>
         </is>
       </c>
       <c r="C36" s="2" t="inlineStr">
         <is>
-          <t>[1.14404]</t>
+          <t>[8.62391]</t>
         </is>
       </c>
       <c r="D36" s="3" t="inlineStr">
@@ -1423,17 +1430,17 @@
     <row r="37">
       <c r="A37" s="2" t="inlineStr">
         <is>
-          <t>('1982-10-27 00:00:00', 'Dablist', 'RUB', 'FIRST BANK &amp; TRUST')</t>
+          <t>('2005-05-30 00:00:00', 'Buzzshare', 'IDR', 'Kreissparkasse Bersenbrück')</t>
         </is>
       </c>
       <c r="B37" s="2" t="inlineStr">
         <is>
-          <t>[14.69631]</t>
+          <t>[15.57089]</t>
         </is>
       </c>
       <c r="C37" s="2" t="inlineStr">
         <is>
-          <t>[14.69631]</t>
+          <t>[15.57089]</t>
         </is>
       </c>
       <c r="D37" s="3" t="inlineStr">
@@ -1450,17 +1457,17 @@
     <row r="38">
       <c r="A38" s="2" t="inlineStr">
         <is>
-          <t>('1985-02-16 00:00:00', 'Browsebug', 'BRL', 'INTERNATIONAL BANK OF COMMERCE')</t>
+          <t>('2022-11-19 00:00:00', 'Trilith', 'USD', 'PSD Bank Karlsruhe-Neustadt eG')</t>
         </is>
       </c>
       <c r="B38" s="2" t="inlineStr">
         <is>
-          <t>[6.90146]</t>
+          <t>[18.37585]</t>
         </is>
       </c>
       <c r="C38" s="2" t="inlineStr">
         <is>
-          <t>[6.90146]</t>
+          <t>[18.37585]</t>
         </is>
       </c>
       <c r="D38" s="3" t="inlineStr">
@@ -1477,17 +1484,17 @@
     <row r="39">
       <c r="A39" s="2" t="inlineStr">
         <is>
-          <t>('2005-05-30 00:00:00', 'Buzzshare', 'IDR', 'Kreissparkasse Bersenbrück')</t>
+          <t>('2024-10-17 00:00:00', 'Katz', 'PLN', 'Caja Rural San José de Almassora, S. Coop. de Crédito V.')</t>
         </is>
       </c>
       <c r="B39" s="2" t="inlineStr">
         <is>
-          <t>[15.57089]</t>
+          <t>[13.76327]</t>
         </is>
       </c>
       <c r="C39" s="2" t="inlineStr">
         <is>
-          <t>[15.57089]</t>
+          <t>[13.76327]</t>
         </is>
       </c>
       <c r="D39" s="3" t="inlineStr">
@@ -1504,44 +1511,44 @@
     <row r="40">
       <c r="A40" s="2" t="inlineStr">
         <is>
-          <t>('1993-04-05 00:00:00', 'Meemm', 'BRL', 'LGT Bank AG, Zweigniederlassung Österreich')</t>
+          <t>('1995-01-11 00:00:00', 'Kaymbo', 'RUB', 'OYAK ANKER Bank GmbH')</t>
         </is>
       </c>
       <c r="B40" s="2" t="inlineStr">
         <is>
-          <t>[22.99976]</t>
+          <t>[1.14404]</t>
         </is>
       </c>
       <c r="C40" s="2" t="inlineStr">
         <is>
-          <t>[22.99976]</t>
-        </is>
-      </c>
-      <c r="D40" s="3" t="inlineStr">
-        <is>
-          <t>PASS</t>
+          <t>[1.14405]</t>
+        </is>
+      </c>
+      <c r="D40" s="4" t="inlineStr">
+        <is>
+          <t>FAIL</t>
         </is>
       </c>
       <c r="E40" s="2" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[1e-05]</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="inlineStr">
         <is>
-          <t>('2016-10-12 00:00:00', 'Edgeblab', 'CNY', 'BANCA PROFILO S.P.A. (OVVERO PROFILOBANK S.P.A.)')</t>
+          <t>('1985-02-16 00:00:00', 'Browsebug', 'BRL', 'INTERNATIONAL BANK OF COMMERCE')</t>
         </is>
       </c>
       <c r="B41" s="2" t="inlineStr">
         <is>
-          <t>[4.06219]</t>
+          <t>[6.90146]</t>
         </is>
       </c>
       <c r="C41" s="2" t="inlineStr">
         <is>
-          <t>[4.06219]</t>
+          <t>[6.90146]</t>
         </is>
       </c>
       <c r="D41" s="3" t="inlineStr">
@@ -1558,17 +1565,17 @@
     <row r="42">
       <c r="A42" s="2" t="inlineStr">
         <is>
-          <t>('2022-06-27 00:00:00', 'Zoonoodle', 'CNY', 'USALLIANCE FEDERAL CREDIT UNION')</t>
+          <t>('1999-06-10 00:00:00', 'Jayo', 'EUR', 'CAPITAL ONE')</t>
         </is>
       </c>
       <c r="B42" s="2" t="inlineStr">
         <is>
-          <t>[22.13272]</t>
+          <t>[14.47416]</t>
         </is>
       </c>
       <c r="C42" s="2" t="inlineStr">
         <is>
-          <t>[22.13272]</t>
+          <t>[14.47416]</t>
         </is>
       </c>
       <c r="D42" s="3" t="inlineStr">
@@ -1585,17 +1592,17 @@
     <row r="43">
       <c r="A43" s="2" t="inlineStr">
         <is>
-          <t>('2009-02-23 00:00:00', 'Kazu', 'CNY', 'Podravska banka d.d.')</t>
+          <t>('1975-05-15 00:00:00', 'Thoughtbridge', 'CZK', 'State Bank of India')</t>
         </is>
       </c>
       <c r="B43" s="2" t="inlineStr">
         <is>
-          <t>[24.7187]</t>
+          <t>[20.40504]</t>
         </is>
       </c>
       <c r="C43" s="2" t="inlineStr">
         <is>
-          <t>[24.7187]</t>
+          <t>[20.40504]</t>
         </is>
       </c>
       <c r="D43" s="3" t="inlineStr">
@@ -1612,17 +1619,17 @@
     <row r="44">
       <c r="A44" s="2" t="inlineStr">
         <is>
-          <t>('', 'Izio', 'KES', 'VR Bank HessenLand eG')</t>
+          <t>('', 'Topicshots', 'UAH', "BANCA DI CREDITO COOPERATIVO LA RISCOSSA DI REGALBUTO - SOCIETA' COOPERATIVA")</t>
         </is>
       </c>
       <c r="B44" s="2" t="inlineStr">
         <is>
-          <t>[23.8583]</t>
+          <t>[3.22903]</t>
         </is>
       </c>
       <c r="C44" s="2" t="inlineStr">
         <is>
-          <t>[23.8583]</t>
+          <t>[3.22903]</t>
         </is>
       </c>
       <c r="D44" s="3" t="inlineStr">
@@ -1639,17 +1646,17 @@
     <row r="45">
       <c r="A45" s="2" t="inlineStr">
         <is>
-          <t>('2015-10-24 00:00:00', 'Fivechat', 'CNY', "Caisse d'épargne et de prévoyance Normandie")</t>
+          <t>('2018-09-08 00:00:00', 'Photolist', 'CNY', 'Aedificium Banca pentru Locuinte S.A')</t>
         </is>
       </c>
       <c r="B45" s="2" t="inlineStr">
         <is>
-          <t>[3.73988]</t>
+          <t>[14.50801]</t>
         </is>
       </c>
       <c r="C45" s="2" t="inlineStr">
         <is>
-          <t>[3.73988]</t>
+          <t>[14.50801]</t>
         </is>
       </c>
       <c r="D45" s="3" t="inlineStr">
@@ -1666,17 +1673,17 @@
     <row r="46">
       <c r="A46" s="2" t="inlineStr">
         <is>
-          <t>('2000-04-25 00:00:00', 'Wikizz', 'PLN', 'HUNTINGTON NATIONAL BANK')</t>
+          <t>('1979-01-10 00:00:00', 'Jazzy', 'RUB', 'CITIZENS BANK')</t>
         </is>
       </c>
       <c r="B46" s="2" t="inlineStr">
         <is>
-          <t>[3.13695]</t>
+          <t>[7.4153]</t>
         </is>
       </c>
       <c r="C46" s="2" t="inlineStr">
         <is>
-          <t>[3.13695]</t>
+          <t>[7.4153]</t>
         </is>
       </c>
       <c r="D46" s="3" t="inlineStr">
@@ -1693,44 +1700,44 @@
     <row r="47">
       <c r="A47" s="2" t="inlineStr">
         <is>
-          <t>('1998-10-16 00:00:00', 'Photospace', 'PHP', 'BUSEY BANK')</t>
+          <t>('1976-02-28 00:00:00', 'Jabberbean', 'CNY', 'FIRST BANK S.A.')</t>
         </is>
       </c>
       <c r="B47" s="2" t="inlineStr">
         <is>
-          <t>[18.71105]</t>
+          <t>[5.13802]</t>
         </is>
       </c>
       <c r="C47" s="2" t="inlineStr">
         <is>
-          <t>[18.71105]</t>
-        </is>
-      </c>
-      <c r="D47" s="3" t="inlineStr">
-        <is>
-          <t>PASS</t>
+          <t>[51.13802]</t>
+        </is>
+      </c>
+      <c r="D47" s="4" t="inlineStr">
+        <is>
+          <t>FAIL</t>
         </is>
       </c>
       <c r="E47" s="2" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[46.0]</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="inlineStr">
         <is>
-          <t>('1991-08-11 00:00:00', 'Eare', 'IDR', 'BANKPLUS')</t>
+          <t>('2012-04-10 00:00:00', 'Mycat', 'CNY', 'REGIONS BANK')</t>
         </is>
       </c>
       <c r="B48" s="2" t="inlineStr">
         <is>
-          <t>[2.05798]</t>
+          <t>[1.39758]</t>
         </is>
       </c>
       <c r="C48" s="2" t="inlineStr">
         <is>
-          <t>[2.05798]</t>
+          <t>[1.39758]</t>
         </is>
       </c>
       <c r="D48" s="3" t="inlineStr">
@@ -1747,17 +1754,17 @@
     <row r="49">
       <c r="A49" s="2" t="inlineStr">
         <is>
-          <t>('2010-10-16 00:00:00', 'Talane', 'JPY', 'HSBC BANK')</t>
+          <t>('2004-06-14 00:00:00', 'Dazzlesphere', 'VUV', 'FIRST STATE BANK')</t>
         </is>
       </c>
       <c r="B49" s="2" t="inlineStr">
         <is>
-          <t>[2.65188]</t>
+          <t>[11.04391]</t>
         </is>
       </c>
       <c r="C49" s="2" t="inlineStr">
         <is>
-          <t>[2.65188]</t>
+          <t>[11.04391]</t>
         </is>
       </c>
       <c r="D49" s="3" t="inlineStr">
@@ -1774,17 +1781,17 @@
     <row r="50">
       <c r="A50" s="2" t="inlineStr">
         <is>
-          <t>('2012-04-10 00:00:00', 'Mycat', 'CNY', 'REGIONS BANK')</t>
+          <t>('2000-04-25 00:00:00', 'Wikizz', 'PLN', 'HUNTINGTON NATIONAL BANK')</t>
         </is>
       </c>
       <c r="B50" s="2" t="inlineStr">
         <is>
-          <t>[1.39758]</t>
+          <t>[3.13695]</t>
         </is>
       </c>
       <c r="C50" s="2" t="inlineStr">
         <is>
-          <t>[1.39758]</t>
+          <t>[3.13695]</t>
         </is>
       </c>
       <c r="D50" s="3" t="inlineStr">
